--- a/觉醒的咒语.xlsx
+++ b/觉醒的咒语.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\learn\ciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09892B75-0D30-4A19-8EB7-AC371A58749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1B0E4-FB37-4148-8E27-0DAAB2A286D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>联系是事物之间以及事物内部各要素之间相互作用,相互影响,相互制约地关系.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -46,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>从纵的方面来看,每一事物总是从过去的事物发展而来,又向未来的事物发展而去.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>矛盾是事物变化发展的动力.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,7 +138,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认识事物就是要透过现象认知事物的本质,把握事物的发展规则.这是一个艰苦的,反复的过程.只有通过实践中多方面的研究,去粗取精,去伪存真,由表及里,由此及彼,才能实现从现象到本质,从不堪深刻的本质到更深刻的本质的无限认识过程.</t>
+    <t>联系是事物之间以及事物内部各要素之间相互作用,相互影响,相互制约的关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系是事物之间以及事物内部各要素之间相互作用,相互影响,相互制约的关系.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从横的方面来看周围其他事物是该事物存在和发展的条件.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从纵的方面来看每一事物总是从过去的事物发展而来又向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从纵的方面来看每一事物总是从过去的事物发展而来又向未来的事物发展而去.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从纵的方面来看每一事物总是从过去的事物发展而来又向着未来的事物发展而去.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内因是事物变化发展的根据.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识事物就是要透过现象认识事物的本质,把握事物的发展规则.这是一个艰苦的,反复的过程.只有通过实践中多方面的研究,去粗取精,去伪存真,由表及里,由此及彼,才能实现从现象到本质,从不堪深刻的本质到更深刻的本质的无限认识过程.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,6 +257,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,20 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -539,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>44380</v>
       </c>
@@ -559,13 +580,64 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -577,11 +649,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D1377-0A23-4CFB-9694-159C1DE03BAF}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,22 +672,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -626,19 +698,42 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -650,11 +745,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE5DB1A-C011-4F9D-9C13-AD25AB8340AD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -691,13 +786,30 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -708,11 +820,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03488866-9A1C-4ED9-83A8-E581135A8EAD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -749,17 +861,35 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44381</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/觉醒的咒语.xlsx
+++ b/觉醒的咒语.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\learn\ciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1B0E4-FB37-4148-8E27-0DAAB2A286D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB482FF-9B71-4767-9609-EC7C805FBC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>认识事物就是要透过现象认识事物的本质,把握事物的发展规则.这是一个艰苦的,反复的过程.只有通过实践中多方面的研究,去粗取精,去伪存真,由表及里,由此及彼,才能实现从现象到本质,从不堪深刻的本质到更深刻的本质的无限认识过程.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从纵的方面来看每一事物总是从过去的事物发展而来,又向,未来的事物发展而去.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物的变化发展总是首先从不显著的变化开始,经过逐步的积累,达到显著的根本性质的变化.量变是质变的前提,没有量变就不会又质变的发生.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -258,6 +266,10 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,20 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -590,7 +602,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>44381</v>
       </c>
       <c r="B3" s="3">
@@ -607,9 +619,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>44381</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -624,9 +634,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>44381</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -640,7 +648,61 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44382</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44382</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>44382</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -649,11 +711,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D1377-0A23-4CFB-9694-159C1DE03BAF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,6 +795,29 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>44382</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -824,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
